--- a/datos excel este siii.xlsx
+++ b/datos excel este siii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thomas Cisco\CISCO IPV4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thomas Cisco\ipv6 para presentar al profesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129409BA-5A23-4B42-91A2-7EBA4FF395E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{851FBB2F-68E4-4AE2-9E0A-6F4887B47133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E793A0DA-F2BF-4773-87F4-EAD90575F428}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E793A0DA-F2BF-4773-87F4-EAD90575F428}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPRESA A" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>#req</t>
   </si>
@@ -351,82 +351,28 @@
     <t>193.126.182.0</t>
   </si>
   <si>
+    <t xml:space="preserve">intertet </t>
+  </si>
+  <si>
     <t>160,180,50,2</t>
   </si>
   <si>
+    <t xml:space="preserve">mascara </t>
+  </si>
+  <si>
     <t>255,255,0,0</t>
   </si>
   <si>
+    <t xml:space="preserve">gateway </t>
+  </si>
+  <si>
     <t>160,180,50,1</t>
   </si>
   <si>
+    <t>Nombre de la red</t>
+  </si>
+  <si>
     <t>thomas</t>
-  </si>
-  <si>
-    <t>Ventilador</t>
-  </si>
-  <si>
-    <t>CONECCION FISISCA</t>
-  </si>
-  <si>
-    <t>SSID</t>
-  </si>
-  <si>
-    <t>ThomasR</t>
-  </si>
-  <si>
-    <t>pass phrase</t>
-  </si>
-  <si>
-    <t>iluminacion2025</t>
-  </si>
-  <si>
-    <t>FA0/20</t>
-  </si>
-  <si>
-    <t>INTERNET</t>
-  </si>
-  <si>
-    <t>IP ASIGNADA</t>
-  </si>
-  <si>
-    <t>MASCARA</t>
-  </si>
-  <si>
-    <t>GATEWAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBBRE RED </t>
-  </si>
-  <si>
-    <t>ip tablet</t>
-  </si>
-  <si>
-    <t>192.168.25.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASCARA TABLET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMOSTATO CONECCION </t>
-  </si>
-  <si>
-    <t>AIR COOLER (D0) TERMOSTATO (D2)</t>
-  </si>
-  <si>
-    <t>HEATING ELEMENT(D0) TERMOSTATO(D1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">192,168,0,1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP ASIGNADA </t>
-  </si>
-  <si>
-    <t>192,168,0,104</t>
   </si>
 </sst>
 </file>
@@ -435,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,51 +419,8 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,37 +513,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -785,45 +663,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,40 +752,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,13 +800,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,48 +820,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - Énfasis3" xfId="5" builtinId="38"/>
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Énfasis6" xfId="6" builtinId="49"/>
-    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1307,36 +1153,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0D887C-5B64-4B4D-924A-A74FBA9A38AA}">
-  <dimension ref="A4:S44"/>
+  <dimension ref="B4:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,24 +1216,23 @@
       <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O5" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="R5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>6</v>
       </c>
@@ -1427,22 +1269,21 @@
       <c r="M6" s="51">
         <v>193126182.09999999</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>19</v>
       </c>
+      <c r="O6" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="P6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="Q6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="39"/>
-    </row>
-    <row r="7" spans="2:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27">
         <v>1002</v>
       </c>
@@ -1479,22 +1320,21 @@
       <c r="M7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="2:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>257</v>
       </c>
@@ -1531,22 +1371,21 @@
       <c r="M8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28" t="s">
+      <c r="N8" s="28" t="s">
         <v>20</v>
       </c>
+      <c r="O8" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="P8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="Q8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="41"/>
-    </row>
-    <row r="9" spans="2:19" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="2:18" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34">
         <v>32</v>
       </c>
@@ -1575,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="36">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L9" s="36">
         <v>31</v>
@@ -1583,30 +1422,29 @@
       <c r="M9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36" t="s">
+      <c r="N9" s="36" t="s">
         <v>22</v>
       </c>
+      <c r="O9" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="P9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="Q9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="42"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O10" s="1"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,24 +1481,23 @@
       <c r="M13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="O13" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Q13" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="R13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>32</v>
       </c>
@@ -1689,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L14" s="29">
         <v>30</v>
@@ -1697,22 +1534,21 @@
       <c r="M14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="28" t="s">
+      <c r="N14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="O14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="P14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="43" t="s">
+      <c r="Q14" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R14" s="46"/>
+    </row>
+    <row r="15" spans="2:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>342</v>
       </c>
@@ -1741,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L15" s="28">
         <v>0</v>
@@ -1749,22 +1585,21 @@
       <c r="M15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28" t="s">
+      <c r="N15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="O15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="P15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="43" t="s">
+      <c r="Q15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="47"/>
-    </row>
-    <row r="16" spans="2:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="47"/>
+    </row>
+    <row r="16" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34">
         <v>512</v>
       </c>
@@ -1801,27 +1636,26 @@
       <c r="M16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="P16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="Q16" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="48"/>
-    </row>
-    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R16" s="48"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1835,7 +1669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
@@ -1849,7 +1683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
@@ -1863,7 +1697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
@@ -1876,15 +1710,8 @@
       <c r="E24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-    </row>
-    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>63</v>
       </c>
@@ -1897,77 +1724,13 @@
       <c r="E25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L26" s="54"/>
-      <c r="M26" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L27" s="54"/>
-      <c r="M27" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="N27" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="O27" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="P27" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q27" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="R27" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="S27" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="54"/>
-      <c r="M28" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="P28" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q28" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="R28" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" s="57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>90</v>
       </c>
@@ -1986,18 +1749,8 @@
       <c r="G29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>96</v>
       </c>
@@ -2016,15 +1769,8 @@
       <c r="G30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>94</v>
       </c>
@@ -2043,15 +1789,8 @@
       <c r="G31" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-    </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
         <v>95</v>
       </c>
@@ -2070,132 +1809,45 @@
       <c r="G32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="60" t="s">
+    </row>
+    <row r="37" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="60" t="s">
+    </row>
+    <row r="40" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="H40" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G42" s="53"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+    </row>
+    <row r="41" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
